--- a/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Rodada 12" sheetId="1" r:id="rId1"/>
-    <sheet name="Rodada 13" sheetId="2" r:id="rId2"/>
+    <sheet name="Rodada 13" sheetId="1" r:id="rId1"/>
+    <sheet name="Rodada 14" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -493,19 +493,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>69.2998046875</v>
+        <v>67.91015625</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2">
-        <v>44.4599609375</v>
+        <v>116.91015625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -513,19 +513,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>66.60009765625</v>
+        <v>105.91015625</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3">
-        <v>71.2099609375</v>
+        <v>114.759765625</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -533,19 +533,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>50.10009765625</v>
+        <v>79.41015625</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4">
-        <v>54.090087890625</v>
+        <v>121.009765625</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -553,19 +553,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>65.85986328125</v>
+        <v>133.0498046875</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5">
-        <v>40.739990234375</v>
+        <v>108.22021484375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -573,19 +573,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>48.9599609375</v>
+        <v>64.39990234375</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6">
-        <v>56.4599609375</v>
+        <v>117.47021484375</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -593,19 +593,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>55.760009765625</v>
+        <v>113.509765625</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>59.47998046875</v>
+        <v>120.8701171875</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -613,19 +613,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>69.66015625</v>
+        <v>120.009765625</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8">
-        <v>63.56005859375</v>
+        <v>133.4404296875</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -633,19 +633,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>66.9599609375</v>
+        <v>117.509765625</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <v>65.81005859375</v>
+        <v>117.10986328125</v>
       </c>
     </row>
   </sheetData>
@@ -686,19 +686,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
-        <v>44.4599609375</v>
-      </c>
       <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2">
-        <v>69.2998046875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -706,19 +700,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>71.2099609375</v>
-      </c>
       <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3">
-        <v>66.60009765625</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -726,19 +714,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>54.090087890625</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4">
-        <v>50.10009765625</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -746,19 +728,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>40.739990234375</v>
-      </c>
       <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5">
-        <v>65.85986328125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -766,19 +742,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
-        <v>56.4599609375</v>
-      </c>
       <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6">
-        <v>48.9599609375</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -786,19 +756,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
-        <v>59.47998046875</v>
-      </c>
       <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7">
-        <v>55.760009765625</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -806,39 +770,27 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>63.56005859375</v>
-      </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>69.66015625</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
-        <v>65.81005859375</v>
-      </c>
       <c r="E9" t="s">
         <v>21</v>
-      </c>
-      <c r="F9">
-        <v>66.9599609375</v>
       </c>
     </row>
   </sheetData>

--- a/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
@@ -35,28 +35,28 @@
     <t>Visitante_Pontos</t>
   </si>
   <si>
-    <t>Jogo A</t>
-  </si>
-  <si>
-    <t>Jogo B</t>
-  </si>
-  <si>
-    <t>Jogo C</t>
-  </si>
-  <si>
-    <t>Jogo D</t>
-  </si>
-  <si>
-    <t>Jogo E</t>
-  </si>
-  <si>
-    <t>Jogo F</t>
-  </si>
-  <si>
-    <t>Jogo G</t>
-  </si>
-  <si>
-    <t>Jogo H</t>
+    <t>Jogo 1 (JG1)</t>
+  </si>
+  <si>
+    <t>Jogo 2 (JG2)</t>
+  </si>
+  <si>
+    <t>Jogo 3 (JG3)</t>
+  </si>
+  <si>
+    <t>Jogo 4 (JG4)</t>
+  </si>
+  <si>
+    <t>Jogo 5 (JG5)</t>
+  </si>
+  <si>
+    <t>Jogo 6 (JG6)</t>
+  </si>
+  <si>
+    <t>Jogo 7 (JG7)</t>
+  </si>
+  <si>
+    <t>Jogo 8 (JG8)</t>
   </si>
   <si>
     <t>Gremiomaniasm</t>

--- a/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/resultados_oitavas_sula.xlsx
@@ -691,8 +691,14 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2">
+        <v>72.2998046875</v>
+      </c>
       <c r="E2" t="s">
         <v>14</v>
+      </c>
+      <c r="F2">
+        <v>48.199951171875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -705,8 +711,14 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
+      <c r="D3">
+        <v>59.89990234375</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+      <c r="F3">
+        <v>66.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -719,8 +731,14 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+      <c r="F4">
+        <v>64.4501953125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -733,8 +751,14 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5">
+        <v>78.2998046875</v>
+      </c>
       <c r="E5" t="s">
         <v>17</v>
+      </c>
+      <c r="F5">
+        <v>80.89990234375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -747,8 +771,14 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6">
+        <v>72.7001953125</v>
+      </c>
       <c r="E6" t="s">
         <v>18</v>
+      </c>
+      <c r="F6">
+        <v>69.7001953125</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -761,8 +791,14 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7">
+        <v>75.7998046875</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
+      </c>
+      <c r="F7">
+        <v>66.39990234375</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -775,9 +811,15 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8">
+        <v>63.5</v>
+      </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
+      <c r="F8">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -789,8 +831,14 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
+      <c r="D9">
+        <v>73.10009765625</v>
+      </c>
       <c r="E9" t="s">
         <v>21</v>
+      </c>
+      <c r="F9">
+        <v>68.919921875</v>
       </c>
     </row>
   </sheetData>
